--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag2-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Jag2-Notch4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H2">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I2">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J2">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N2">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O2">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P2">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q2">
-        <v>953.4603905099776</v>
+        <v>970.7998003513873</v>
       </c>
       <c r="R2">
-        <v>8581.143514589799</v>
+        <v>8737.198203162485</v>
       </c>
       <c r="S2">
-        <v>0.7425098894034013</v>
+        <v>0.7549373158329982</v>
       </c>
       <c r="T2">
-        <v>0.7425098894034012</v>
+        <v>0.7549373158329982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H3">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I3">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J3">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O3">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P3">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q3">
-        <v>57.35617497051388</v>
+        <v>57.68166742654389</v>
       </c>
       <c r="R3">
-        <v>516.2055747346249</v>
+        <v>519.1350068388949</v>
       </c>
       <c r="S3">
-        <v>0.04466627828260342</v>
+        <v>0.04485584274327718</v>
       </c>
       <c r="T3">
-        <v>0.04466627828260342</v>
+        <v>0.04485584274327719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H4">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I4">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J4">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N4">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P4">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q4">
-        <v>14.74392326007777</v>
+        <v>17.68706188031167</v>
       </c>
       <c r="R4">
-        <v>132.6953093407</v>
+        <v>159.183556922805</v>
       </c>
       <c r="S4">
-        <v>0.01148187060330538</v>
+        <v>0.01375424986290846</v>
       </c>
       <c r="T4">
-        <v>0.01148187060330538</v>
+        <v>0.01375424986290846</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.70050833333333</v>
+        <v>20.81798233333333</v>
       </c>
       <c r="H5">
-        <v>62.101525</v>
+        <v>62.453947</v>
       </c>
       <c r="I5">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="J5">
-        <v>0.8277101186170105</v>
+        <v>0.8242653639952813</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N5">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O5">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P5">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q5">
-        <v>37.30591100494722</v>
+        <v>13.782586839748</v>
       </c>
       <c r="R5">
-        <v>335.7531990445249</v>
+        <v>124.043281557732</v>
       </c>
       <c r="S5">
-        <v>0.02905208032770042</v>
+        <v>0.01071795555609757</v>
       </c>
       <c r="T5">
-        <v>0.02905208032770042</v>
+        <v>0.01071795555609757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H6">
         <v>2.377799</v>
       </c>
       <c r="I6">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J6">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N6">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O6">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P6">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q6">
-        <v>36.50694830914755</v>
+        <v>36.96110342674945</v>
       </c>
       <c r="R6">
-        <v>328.5625347823279</v>
+        <v>332.649930840745</v>
       </c>
       <c r="S6">
-        <v>0.02842988594102187</v>
+        <v>0.02874260604618611</v>
       </c>
       <c r="T6">
-        <v>0.02842988594102186</v>
+        <v>0.02874260604618611</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H7">
         <v>2.377799</v>
       </c>
       <c r="I7">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J7">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O7">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P7">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q7">
-        <v>2.196104773412777</v>
+        <v>2.196104773412778</v>
       </c>
       <c r="R7">
-        <v>19.76494296071499</v>
+        <v>19.764942960715</v>
       </c>
       <c r="S7">
-        <v>0.001710222604583319</v>
+        <v>0.001707789229384041</v>
       </c>
       <c r="T7">
-        <v>0.001710222604583319</v>
+        <v>0.001707789229384041</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H8">
         <v>2.377799</v>
       </c>
       <c r="I8">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J8">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N8">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P8">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q8">
-        <v>0.5645285841835553</v>
+        <v>0.6733966397983334</v>
       </c>
       <c r="R8">
-        <v>5.080757257651999</v>
+        <v>6.060569758185</v>
       </c>
       <c r="S8">
-        <v>0.0004396281804459542</v>
+        <v>0.0005236633253903693</v>
       </c>
       <c r="T8">
-        <v>0.0004396281804459541</v>
+        <v>0.0005236633253903693</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7925996666666665</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H9">
         <v>2.377799</v>
       </c>
       <c r="I9">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="J9">
-        <v>0.03169210888681733</v>
+        <v>0.03138212158540782</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N9">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O9">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P9">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q9">
-        <v>1.428402247475444</v>
+        <v>0.524742194516</v>
       </c>
       <c r="R9">
-        <v>12.855620227279</v>
+        <v>4.722679750644</v>
       </c>
       <c r="S9">
-        <v>0.001112372160766193</v>
+        <v>0.0004080629844472958</v>
       </c>
       <c r="T9">
-        <v>0.001112372160766193</v>
+        <v>0.0004080629844472958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H10">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I10">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J10">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N10">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O10">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P10">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q10">
-        <v>89.98929694975732</v>
+        <v>71.667777562675</v>
       </c>
       <c r="R10">
-        <v>809.903672547816</v>
+        <v>645.0099980640749</v>
       </c>
       <c r="S10">
-        <v>0.0700794113638168</v>
+        <v>0.05573206711136394</v>
       </c>
       <c r="T10">
-        <v>0.07007941136381682</v>
+        <v>0.05573206711136394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H11">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I11">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J11">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O11">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P11">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q11">
-        <v>5.413378377011666</v>
+        <v>4.258258921224999</v>
       </c>
       <c r="R11">
-        <v>48.72040539310499</v>
+        <v>38.32433029102499</v>
       </c>
       <c r="S11">
-        <v>0.004215683231333597</v>
+        <v>0.003311412465214692</v>
       </c>
       <c r="T11">
-        <v>0.004215683231333597</v>
+        <v>0.003311412465214693</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H12">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I12">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J12">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N12">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P12">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q12">
-        <v>1.391557847249333</v>
+        <v>1.305719692275</v>
       </c>
       <c r="R12">
-        <v>12.524020625244</v>
+        <v>11.751477230475</v>
       </c>
       <c r="S12">
-        <v>0.001083679483220992</v>
+        <v>0.001015385993445387</v>
       </c>
       <c r="T12">
-        <v>0.001083679483220992</v>
+        <v>0.001015385993445387</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.953751</v>
+        <v>1.536855</v>
       </c>
       <c r="H13">
-        <v>5.861253</v>
+        <v>4.610564999999999</v>
       </c>
       <c r="I13">
-        <v>0.07812076138024482</v>
+        <v>0.06085010188305478</v>
       </c>
       <c r="J13">
-        <v>0.07812076138024483</v>
+        <v>0.06085010188305479</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N13">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O13">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P13">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q13">
-        <v>3.520998603423666</v>
+        <v>1.01747792646</v>
       </c>
       <c r="R13">
-        <v>31.688987430813</v>
+        <v>9.157301338139998</v>
       </c>
       <c r="S13">
-        <v>0.002741987301873426</v>
+        <v>0.0007912363130307674</v>
       </c>
       <c r="T13">
-        <v>0.002741987301873426</v>
+        <v>0.0007912363130307676</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H14">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I14">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J14">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.05975733333333</v>
+        <v>46.63275166666667</v>
       </c>
       <c r="N14">
-        <v>138.179272</v>
+        <v>139.898255</v>
       </c>
       <c r="O14">
-        <v>0.8970651351272991</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="P14">
-        <v>0.897065135127299</v>
+        <v>0.9158911059585902</v>
       </c>
       <c r="Q14">
-        <v>71.96886213741156</v>
+        <v>98.34712091520167</v>
       </c>
       <c r="R14">
-        <v>647.7197592367041</v>
+        <v>885.1240882368149</v>
       </c>
       <c r="S14">
-        <v>0.05604594841905904</v>
+        <v>0.07647911696804208</v>
       </c>
       <c r="T14">
-        <v>0.05604594841905904</v>
+        <v>0.07647911696804209</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H15">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I15">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J15">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.312284999999999</v>
       </c>
       <c r="O15">
-        <v>0.05396367312415441</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="P15">
-        <v>0.0539636731241544</v>
+        <v>0.05441917700612491</v>
       </c>
       <c r="Q15">
-        <v>4.329344658957779</v>
+        <v>5.843456002911666</v>
       </c>
       <c r="R15">
-        <v>38.96410193062</v>
+        <v>52.59110402620499</v>
       </c>
       <c r="S15">
-        <v>0.003371489005634059</v>
+        <v>0.004544132568248986</v>
       </c>
       <c r="T15">
-        <v>0.003371489005634059</v>
+        <v>0.004544132568248987</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H16">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I16">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J16">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.7122493333333333</v>
+        <v>0.8496050000000001</v>
       </c>
       <c r="N16">
-        <v>2.136748</v>
+        <v>2.548815</v>
       </c>
       <c r="O16">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="P16">
-        <v>0.01387184999319569</v>
+        <v>0.01668667696558362</v>
       </c>
       <c r="Q16">
-        <v>1.112897180659556</v>
+        <v>1.791792306455</v>
       </c>
       <c r="R16">
-        <v>10.016074625936</v>
+        <v>16.126130758095</v>
       </c>
       <c r="S16">
-        <v>0.0008666717262233627</v>
+        <v>0.001393377783839406</v>
       </c>
       <c r="T16">
-        <v>0.0008666717262233625</v>
+        <v>0.001393377783839407</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.562510666666667</v>
+        <v>2.108971</v>
       </c>
       <c r="H17">
-        <v>4.687532000000001</v>
+        <v>6.326912999999999</v>
       </c>
       <c r="I17">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625613</v>
       </c>
       <c r="J17">
-        <v>0.06247701111592725</v>
+        <v>0.08350241253625615</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.802173666666667</v>
+        <v>0.662052</v>
       </c>
       <c r="N17">
-        <v>5.406521</v>
+        <v>1.986156</v>
       </c>
       <c r="O17">
-        <v>0.03509934175535083</v>
+        <v>0.01300304006970129</v>
       </c>
       <c r="P17">
-        <v>0.03509934175535083</v>
+        <v>0.0130030400697013</v>
       </c>
       <c r="Q17">
-        <v>2.815915577352445</v>
+        <v>1.396248468492</v>
       </c>
       <c r="R17">
-        <v>25.343240196172</v>
+        <v>12.566236216428</v>
       </c>
       <c r="S17">
-        <v>0.002192901965010783</v>
+        <v>0.001085785216125666</v>
       </c>
       <c r="T17">
-        <v>0.002192901965010783</v>
+        <v>0.001085785216125667</v>
       </c>
     </row>
   </sheetData>
